--- a/projeto1/test/graphs/xls/aprox-error-2-2108MB.xlsx
+++ b/projeto1/test/graphs/xls/aprox-error-2-2108MB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betoc\Documents\git\string-processing\projeto1\test\graphs\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavalcanti/Documents/git/ufpe/string-processing/projeto1/test/graphs/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25A3DA-F79A-CC4C-B9FD-9C75979489C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result-aprox-error-1-50MB" sheetId="1" r:id="rId1"/>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,10 +617,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -678,17 +679,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Resultado Aproximad</a:t>
+              <a:t>Arquivo </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t>o english.2108MB - Erro: 2</a:t>
+              <a:t>2108MB - Busca Aproximada - Erro: 2</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1372,7 +1372,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1472,7 +1471,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1495,7 +1494,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1505,7 +1503,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1570,7 +1568,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2197,7 +2194,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2477,19 +2480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>95542839</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>28428405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>32091267</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>1082620</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>230145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>105185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>141972</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>5844</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>35547668</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>22821012</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>24333276</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>1073784</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>427586</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>122286</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>59213</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>141383</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>6538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>28179</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>35551052</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>22842037</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>24341670</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>1075866</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>428594</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>122850</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>59459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>141593</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>28270</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>6870</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
